--- a/Projects/CCRU/Data/KPIs_2019/Target Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Target Execution 2019.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\27062019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190717_1938\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5C0F3-78DD-4F0E-B6ED-6486E7A6C0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB92C9-F04A-4CF3-91A8-2D758E461582}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Execution 2019" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Target Execution 2019'!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Target Execution 2019'!$A$1:$AA$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="99">
   <si>
     <t>Status</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>Any Other Activation</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Juice Displays, Mixability Displays</t>
+  </si>
+  <si>
+    <t>CAT</t>
   </si>
 </sst>
 </file>
@@ -787,45 +796,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="16"/>
-    <col min="7" max="7" width="37.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="16"/>
+    <col min="7" max="7" width="37.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="16"/>
-    <col min="11" max="11" width="15.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="16"/>
+    <col min="10" max="10" width="9.1796875" style="16"/>
+    <col min="11" max="11" width="15.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,52 +870,55 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -928,40 +941,43 @@
       <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
+      <c r="I2" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="5">
-        <v>1</v>
-      </c>
+      <c r="S2" s="5"/>
       <c r="T2" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -992,32 +1008,33 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="5">
-        <v>2</v>
-      </c>
+      <c r="S3" s="5"/>
       <c r="T3" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1048,32 +1065,33 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="5">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
         <v>3</v>
       </c>
-      <c r="T4" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
+      <c r="U4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -1102,34 +1120,35 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="5">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5">
         <v>4</v>
       </c>
-      <c r="T5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
+      <c r="U5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1152,40 +1171,43 @@
       <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
+      <c r="I6" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="5">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <v>5</v>
       </c>
-      <c r="T6" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5" t="s">
+      <c r="U6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1218,30 +1240,31 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
         <v>701</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
         <v>6</v>
       </c>
-      <c r="T7" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5" t="s">
+      <c r="U7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1274,30 +1297,31 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
         <v>703</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5">
         <v>7</v>
       </c>
-      <c r="T8" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5" t="s">
+      <c r="U8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1330,30 +1354,31 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5">
         <v>704</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5">
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
         <v>8</v>
       </c>
-      <c r="T9" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="s">
+      <c r="U9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1386,30 +1411,31 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5">
         <v>705</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5">
         <v>9</v>
       </c>
-      <c r="T10" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5" t="s">
+      <c r="U10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1442,30 +1468,31 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5">
         <v>702</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5">
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
         <v>10</v>
       </c>
-      <c r="T11" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5" t="s">
+      <c r="U11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1496,32 +1523,33 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="5">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
         <v>11</v>
       </c>
-      <c r="T12" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5" t="s">
+      <c r="U12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1552,32 +1580,33 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="5">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
         <v>12</v>
       </c>
-      <c r="T13" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="s">
+      <c r="U13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1604,34 +1633,35 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="5">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
         <v>13</v>
       </c>
-      <c r="T14" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5" t="s">
+      <c r="U14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1664,26 +1694,27 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="5">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
         <v>37</v>
       </c>
-      <c r="T15" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5" t="s">
+      <c r="U15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1714,32 +1745,33 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="5">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
         <v>14</v>
       </c>
-      <c r="T16" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5" t="s">
+      <c r="U16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -1770,32 +1802,33 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5">
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
         <v>15</v>
       </c>
-      <c r="T17" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5" t="s">
+      <c r="U17" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1826,32 +1859,33 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="5">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5">
         <v>16</v>
       </c>
-      <c r="T18" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
+      <c r="U18" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1882,32 +1916,33 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5">
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
         <v>17</v>
       </c>
-      <c r="T19" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5" t="s">
+      <c r="U19" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1938,32 +1973,33 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="5">
+      <c r="S20" s="5"/>
+      <c r="T20" s="5">
         <v>18</v>
       </c>
-      <c r="T20" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5" t="s">
+      <c r="U20" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1996,26 +2032,27 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="5">
+      <c r="S21" s="5"/>
+      <c r="T21" s="5">
         <v>19</v>
       </c>
-      <c r="T21" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5" t="s">
+      <c r="U21" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2048,26 +2085,27 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="5">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5">
         <v>20</v>
       </c>
-      <c r="T22" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5" t="s">
+      <c r="U22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -2100,26 +2138,27 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="5">
+      <c r="S23" s="5"/>
+      <c r="T23" s="5">
         <v>21</v>
       </c>
-      <c r="T23" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5" t="s">
+      <c r="U23" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -2152,26 +2191,27 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="5">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5">
         <v>22</v>
       </c>
-      <c r="T24" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5" t="s">
+      <c r="U24" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -2204,26 +2244,27 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="5">
+      <c r="S25" s="5"/>
+      <c r="T25" s="5">
         <v>23</v>
       </c>
-      <c r="T25" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5" t="s">
+      <c r="U25" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>77</v>
       </c>
@@ -2256,26 +2297,27 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="11">
+      <c r="S26" s="11"/>
+      <c r="T26" s="11">
         <v>24</v>
       </c>
-      <c r="T26" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11" t="s">
+      <c r="U26" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>77</v>
       </c>
@@ -2308,26 +2350,27 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="11">
+      <c r="S27" s="11"/>
+      <c r="T27" s="11">
         <v>25</v>
       </c>
-      <c r="T27" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11" t="s">
+      <c r="U27" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>77</v>
       </c>
@@ -2360,26 +2403,27 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="11">
+      <c r="S28" s="11"/>
+      <c r="T28" s="11">
         <v>26</v>
       </c>
-      <c r="T28" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11" t="s">
+      <c r="U28" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
@@ -2412,26 +2456,27 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="11">
-        <v>27</v>
-      </c>
+      <c r="S29" s="11"/>
       <c r="T29" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>77</v>
       </c>
@@ -2464,26 +2509,27 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="11">
+      <c r="S30" s="11"/>
+      <c r="T30" s="11">
         <v>28</v>
       </c>
-      <c r="T30" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11" t="s">
+      <c r="U30" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>77</v>
       </c>
@@ -2516,26 +2562,27 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="11">
+      <c r="S31" s="11"/>
+      <c r="T31" s="11">
         <v>29</v>
       </c>
-      <c r="T31" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11" t="s">
+      <c r="U31" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>77</v>
       </c>
@@ -2568,26 +2615,27 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="11">
-        <v>30</v>
-      </c>
+      <c r="S32" s="11"/>
       <c r="T32" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>35</v>
       </c>
@@ -2620,26 +2668,27 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="11">
+      <c r="S33" s="11"/>
+      <c r="T33" s="11">
         <v>31</v>
       </c>
-      <c r="T33" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11" t="s">
+      <c r="U33" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>35</v>
       </c>
@@ -2672,26 +2721,27 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="11">
+      <c r="S34" s="11"/>
+      <c r="T34" s="11">
         <v>32</v>
       </c>
-      <c r="T34" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11" t="s">
+      <c r="U34" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>35</v>
       </c>
@@ -2724,26 +2774,27 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-      <c r="S35" s="11">
+      <c r="S35" s="11"/>
+      <c r="T35" s="11">
         <v>33</v>
       </c>
-      <c r="T35" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11" t="s">
+      <c r="U35" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -2776,26 +2827,27 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="11">
+      <c r="S36" s="11"/>
+      <c r="T36" s="11">
         <v>34</v>
       </c>
-      <c r="T36" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11" t="s">
+      <c r="U36" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
@@ -2828,26 +2880,27 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-      <c r="S37" s="11">
+      <c r="S37" s="11"/>
+      <c r="T37" s="11">
         <v>35</v>
       </c>
-      <c r="T37" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11" t="s">
+      <c r="U37" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>35</v>
       </c>
@@ -2880,26 +2933,27 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="11">
+      <c r="S38" s="11"/>
+      <c r="T38" s="11">
         <v>36</v>
       </c>
-      <c r="T38" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11" t="s">
+      <c r="U38" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>35</v>
       </c>
@@ -2932,26 +2986,27 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="14">
+      <c r="S39" s="14"/>
+      <c r="T39" s="14">
         <v>37</v>
       </c>
-      <c r="T39" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14" t="s">
+      <c r="U39" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
@@ -2984,26 +3039,27 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="14">
+      <c r="S40" s="14"/>
+      <c r="T40" s="14">
         <v>38</v>
       </c>
-      <c r="T40" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14" t="s">
+      <c r="U40" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -3036,27 +3092,28 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
-      <c r="S41" s="14">
+      <c r="S41" s="14"/>
+      <c r="T41" s="14">
         <v>39</v>
       </c>
-      <c r="T41" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14" t="s">
+      <c r="U41" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14">
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{333FDD8F-E136-44CD-9A9D-EE93CEF1DE54}"/>
+  <autoFilter ref="A1:AA1" xr:uid="{333FDD8F-E136-44CD-9A9D-EE93CEF1DE54}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/Target Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Target Execution 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="106">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -322,6 +322,27 @@
   <si>
     <t xml:space="preserve">Any Other Activation</t>
   </si>
+  <si>
+    <t xml:space="preserve">Adez Warm Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adez Cold Shelf Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Shelf - Modern Trade</t>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +353,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,6 +375,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -417,7 +445,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,12 +469,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,15 +487,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,11 +503,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,11 +515,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,7 +527,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,35 +535,48 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -605,42 +650,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:41"/>
+  <dimension ref="1:43"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -33828,6 +33873,120 @@
         <v>2</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20" t="n">
+        <v>40</v>
+      </c>
+      <c r="U42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20" t="n">
+        <v>41</v>
+      </c>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/Target Execution 2019.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/Target Execution 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="104">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">Any Other Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">Adez Warm Shelf Share</t>
+    <t xml:space="preserve">Adez Shelf Share</t>
   </si>
   <si>
     <t xml:space="preserve">number of facings</t>
@@ -335,13 +335,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">Warm shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adez Cold Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Shelf - Modern Trade</t>
+    <t xml:space="preserve">Cold Shelf, Warm Shelf</t>
   </si>
 </sst>
 </file>
@@ -353,7 +347,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -377,13 +371,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -403,7 +390,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +415,12 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -445,7 +438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,16 +462,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,15 +476,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,11 +492,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,11 +504,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,7 +516,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,48 +524,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -623,7 +599,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -650,42 +626,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:43"/>
+  <dimension ref="1:42"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -33714,276 +33690,219 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="16" t="n">
+      <c r="E39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16" t="n">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="U39" s="16" t="n">
+      <c r="U39" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16" t="s">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16" t="n">
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16" t="n">
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16" t="n">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="U40" s="16" t="n">
+      <c r="U40" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16" t="s">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16" t="n">
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16" t="n">
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="41" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="6"/>
+      <c r="G41" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16" t="n">
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="U41" s="16" t="n">
+      <c r="U41" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16" t="s">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16" t="n">
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16" t="n">
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="20" t="n">
+      <c r="E42" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20" t="s">
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20" t="n">
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="U42" s="20" t="n">
+      <c r="U42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20" t="s">
+      <c r="V42" s="16"/>
+      <c r="W42" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20" t="n">
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20" t="n">
-        <v>41</v>
-      </c>
-      <c r="U43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20" t="n">
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16" t="n">
         <v>2</v>
       </c>
     </row>
